--- a/write/tables/tb_occupancy_effects_all.xlsx
+++ b/write/tables/tb_occupancy_effects_all.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steve/aor/academic/paper-spotepi/src/write/tables/"/>
     </mc:Choice>
@@ -14,8 +14,8 @@
   <sheets>
     <sheet name="readme" sheetId="4" r:id="rId1"/>
     <sheet name="formatted" sheetId="3" r:id="rId2"/>
-    <sheet name="varsBy_room_cmp2" sheetId="1" r:id="rId3"/>
-    <sheet name="varsBy_room_cmp2_detail" sheetId="2" r:id="rId4"/>
+    <sheet name="varsBy_room_cmp2" r:id="rId8" sheetId="5"/>
+    <sheet name="varsBy_room_cmp2_detail" r:id="rId9" sheetId="6"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="301">
   <si>
     <t>varname</t>
   </si>
@@ -1050,7 +1050,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="794">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
@@ -1097,6 +1097,2322 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="30">
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1436,14 +3752,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="0" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="4.83203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="4.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.6640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
@@ -1919,2422 +4235,2845 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="22">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="23">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="24">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="25">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s" s="26">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s" s="27">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s" s="28">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s" s="29">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s" s="30">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s" s="31">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s" s="32">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s" s="33">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2">
+      <c r="A2" t="s" s="34">
         <v>12</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" t="n" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="C2" t="s" s="70">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s" s="88">
         <v>41</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s" s="106">
         <v>59</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s" s="124">
         <v>41</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s" s="142">
         <v>91</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s" s="160">
         <v>41</v>
       </c>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
+      <c r="I2" t="n" s="178">
+        <v>1.0</v>
+      </c>
+      <c r="J2" t="n" s="196">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n" s="214">
+        <v>0.0</v>
+      </c>
+      <c r="L2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3">
+      <c r="A3" t="s" s="35">
         <v>13</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" t="n" s="53">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="s" s="71">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s" s="89">
         <v>42</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s" s="107">
         <v>60</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s" s="125">
         <v>75</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s" s="143">
         <v>92</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s" s="161">
         <v>106</v>
       </c>
-      <c r="I3" s="3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="I3" t="n" s="179">
+        <v>2.0</v>
+      </c>
+      <c r="J3" t="n" s="197">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n" s="215">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="s" s="232">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4">
+      <c r="A4" t="s" s="36">
         <v>13</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" t="n" s="54">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="s" s="72">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s" s="90">
         <v>43</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s" s="108">
         <v>61</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s" s="126">
         <v>76</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s" s="144">
         <v>93</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" t="s" s="162">
         <v>107</v>
       </c>
-      <c r="I4" s="3">
-        <v>2</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
+      <c r="I4" t="n" s="180">
+        <v>2.0</v>
+      </c>
+      <c r="J4" t="n" s="198">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n" s="216">
+        <v>0.0</v>
+      </c>
+      <c r="L4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5">
+      <c r="A5" t="s" s="37">
         <v>14</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" t="n" s="55">
+        <v>1.0</v>
+      </c>
+      <c r="C5" t="s" s="73">
         <v>26</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s" s="91">
         <v>44</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s" s="109">
         <v>62</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s" s="127">
         <v>77</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s" s="145">
         <v>94</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" t="s" s="163">
         <v>108</v>
       </c>
-      <c r="I5" s="3">
-        <v>3</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="I5" t="n" s="181">
+        <v>3.0</v>
+      </c>
+      <c r="J5" t="n" s="199">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="n" s="217">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="s" s="233">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6">
+      <c r="A6" t="s" s="38">
         <v>14</v>
       </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="s" s="74">
         <v>27</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s" s="92">
         <v>45</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s" s="110">
         <v>63</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s" s="128">
         <v>78</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s" s="146">
         <v>95</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" t="s" s="164">
         <v>109</v>
       </c>
-      <c r="I6" s="3">
-        <v>3</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
+      <c r="I6" t="n" s="182">
+        <v>3.0</v>
+      </c>
+      <c r="J6" t="n" s="200">
+        <v>0.0</v>
+      </c>
+      <c r="K6" t="n" s="218">
+        <v>0.0</v>
+      </c>
+      <c r="L6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7">
+      <c r="A7" t="s" s="39">
         <v>15</v>
       </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" t="n" s="57">
+        <v>1.0</v>
+      </c>
+      <c r="C7" t="s" s="75">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s" s="93">
         <v>46</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s" s="111">
         <v>64</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s" s="129">
         <v>79</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" t="s" s="147">
         <v>96</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" t="s" s="165">
         <v>110</v>
       </c>
-      <c r="I7" s="3">
-        <v>4</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="I7" t="n" s="183">
+        <v>4.0</v>
+      </c>
+      <c r="J7" t="n" s="201">
+        <v>0.0</v>
+      </c>
+      <c r="K7" t="n" s="219">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="s" s="234">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8">
+      <c r="A8" t="s" s="40">
         <v>15</v>
       </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" t="n" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="C8" t="s" s="76">
         <v>29</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s" s="94">
         <v>47</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s" s="112">
         <v>65</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s" s="130">
         <v>80</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" t="s" s="148">
         <v>97</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" t="s" s="166">
         <v>111</v>
       </c>
-      <c r="I8" s="3">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
+      <c r="I8" t="n" s="184">
+        <v>4.0</v>
+      </c>
+      <c r="J8" t="n" s="202">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="n" s="220">
+        <v>0.0</v>
+      </c>
+      <c r="L8"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="9">
+      <c r="A9" t="s" s="41">
         <v>16</v>
       </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" t="n" s="59">
+        <v>1.0</v>
+      </c>
+      <c r="C9" t="s" s="77">
         <v>30</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s" s="95">
         <v>48</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s" s="113">
         <v>32</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s" s="131">
         <v>81</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s" s="149">
         <v>66</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" t="s" s="167">
         <v>112</v>
       </c>
-      <c r="I9" s="3">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
-        <v>10087</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="I9" t="n" s="185">
+        <v>5.0</v>
+      </c>
+      <c r="J9" t="n" s="203">
+        <v>10087.0</v>
+      </c>
+      <c r="K9" t="n" s="221">
         <v>66.5</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" t="s" s="235">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10">
+      <c r="A10" t="s" s="42">
         <v>17</v>
       </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" t="n" s="60">
+        <v>1.0</v>
+      </c>
+      <c r="C10" t="s" s="78">
         <v>31</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s" s="96">
         <v>49</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s" s="114">
         <v>31</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s" s="132">
         <v>49</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" t="s" s="150">
         <v>31</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" t="s" s="168">
         <v>49</v>
       </c>
-      <c r="I10" s="3">
-        <v>6</v>
-      </c>
-      <c r="J10" s="3">
-        <v>191</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="I10" t="n" s="186">
+        <v>6.0</v>
+      </c>
+      <c r="J10" t="n" s="204">
+        <v>191.0</v>
+      </c>
+      <c r="K10" t="n" s="222">
         <v>1.3</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" t="s" s="236">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11">
+      <c r="A11" t="s" s="43">
         <v>18</v>
       </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" t="n" s="61">
+        <v>1.0</v>
+      </c>
+      <c r="C11" t="s" s="79">
         <v>32</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s" s="97">
         <v>50</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s" s="115">
         <v>66</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s" s="133">
         <v>82</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s" s="151">
         <v>66</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" t="s" s="169">
         <v>113</v>
       </c>
-      <c r="I11" s="3">
-        <v>7</v>
-      </c>
-      <c r="J11" s="3">
-        <v>10098</v>
-      </c>
-      <c r="K11" s="3">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="L11" s="2" t="s">
+      <c r="I11" t="n" s="187">
+        <v>7.0</v>
+      </c>
+      <c r="J11" t="n" s="205">
+        <v>10098.0</v>
+      </c>
+      <c r="K11" t="n" s="223">
+        <v>66.6</v>
+      </c>
+      <c r="L11" t="s" s="237">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12">
+      <c r="A12" t="s" s="44">
         <v>19</v>
       </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" t="n" s="62">
+        <v>1.0</v>
+      </c>
+      <c r="C12" t="s" s="80">
         <v>33</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s" s="98">
         <v>51</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s" s="116">
         <v>67</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s" s="134">
         <v>83</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" t="s" s="152">
         <v>98</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" t="s" s="170">
         <v>114</v>
       </c>
-      <c r="I12" s="3">
-        <v>8</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="s">
+      <c r="I12" t="n" s="188">
+        <v>8.0</v>
+      </c>
+      <c r="J12" t="n" s="206">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n" s="224">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="s" s="238">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="13">
+      <c r="A13" t="s" s="45">
         <v>19</v>
       </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" t="n" s="63">
+        <v>0.0</v>
+      </c>
+      <c r="C13" t="s" s="81">
         <v>34</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s" s="99">
         <v>52</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s" s="117">
         <v>68</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s" s="135">
         <v>84</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" t="s" s="153">
         <v>99</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" t="s" s="171">
         <v>115</v>
       </c>
-      <c r="I13" s="3">
-        <v>8</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
+      <c r="I13" t="n" s="189">
+        <v>8.0</v>
+      </c>
+      <c r="J13" t="n" s="207">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="L13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14">
+      <c r="A14" t="s" s="46">
         <v>20</v>
       </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" t="n" s="64">
+        <v>1.0</v>
+      </c>
+      <c r="C14" t="s" s="82">
         <v>35</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s" s="100">
         <v>53</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" t="s" s="118">
         <v>69</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" t="s" s="136">
         <v>85</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" t="s" s="154">
         <v>100</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" t="s" s="172">
         <v>116</v>
       </c>
-      <c r="I14" s="3">
-        <v>9</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="s">
+      <c r="I14" t="n" s="190">
+        <v>9.0</v>
+      </c>
+      <c r="J14" t="n" s="208">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="s" s="239">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="15">
+      <c r="A15" t="s" s="47">
         <v>20</v>
       </c>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" t="n" s="65">
+        <v>0.0</v>
+      </c>
+      <c r="C15" t="s" s="83">
         <v>36</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s" s="101">
         <v>54</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" t="s" s="119">
         <v>70</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" t="s" s="137">
         <v>86</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" t="s" s="155">
         <v>101</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" t="s" s="173">
         <v>117</v>
       </c>
-      <c r="I15" s="3">
-        <v>9</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
+      <c r="I15" t="n" s="191">
+        <v>9.0</v>
+      </c>
+      <c r="J15" t="n" s="209">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="L15"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="16">
+      <c r="A16" t="s" s="48">
         <v>21</v>
       </c>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" t="n" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="C16" t="s" s="84">
         <v>37</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s" s="102">
         <v>55</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" t="s" s="120">
         <v>71</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" t="s" s="138">
         <v>87</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" t="s" s="156">
         <v>102</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" t="s" s="174">
         <v>108</v>
       </c>
-      <c r="I16" s="3">
-        <v>10</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="s">
+      <c r="I16" t="n" s="192">
+        <v>10.0</v>
+      </c>
+      <c r="J16" t="n" s="210">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="s" s="240">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="17">
+      <c r="A17" t="s" s="49">
         <v>21</v>
       </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" t="n" s="67">
+        <v>0.0</v>
+      </c>
+      <c r="C17" t="s" s="85">
         <v>38</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s" s="103">
         <v>56</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" t="s" s="121">
         <v>72</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" t="s" s="139">
         <v>88</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" t="s" s="157">
         <v>103</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" t="s" s="175">
         <v>109</v>
       </c>
-      <c r="I17" s="3">
-        <v>10</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
+      <c r="I17" t="n" s="193">
+        <v>10.0</v>
+      </c>
+      <c r="J17" t="n" s="211">
+        <v>0.0</v>
+      </c>
+      <c r="K17" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="L17"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="18">
+      <c r="A18" t="s" s="50">
         <v>22</v>
       </c>
-      <c r="B18" s="3">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" t="n" s="68">
+        <v>1.0</v>
+      </c>
+      <c r="C18" t="s" s="86">
         <v>39</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s" s="104">
         <v>57</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" t="s" s="122">
         <v>73</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" t="s" s="140">
         <v>89</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s" s="158">
         <v>104</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" t="s" s="176">
         <v>118</v>
       </c>
-      <c r="I18" s="3">
-        <v>11</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="s">
+      <c r="I18" t="n" s="194">
+        <v>11.0</v>
+      </c>
+      <c r="J18" t="n" s="212">
+        <v>0.0</v>
+      </c>
+      <c r="K18" t="n" s="230">
+        <v>0.0</v>
+      </c>
+      <c r="L18" t="s" s="241">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="19">
+      <c r="A19" t="s" s="51">
         <v>22</v>
       </c>
-      <c r="B19" s="3">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" t="n" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="C19" t="s" s="87">
         <v>40</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s" s="105">
         <v>58</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" t="s" s="123">
         <v>74</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" t="s" s="141">
         <v>90</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" t="s" s="159">
         <v>105</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" t="s" s="177">
         <v>119</v>
       </c>
-      <c r="I19" s="3">
-        <v>11</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0</v>
-      </c>
+      <c r="I19" t="n" s="195">
+        <v>11.0</v>
+      </c>
+      <c r="J19" t="n" s="213">
+        <v>0.0</v>
+      </c>
+      <c r="K19" t="n" s="231">
+        <v>0.0</v>
+      </c>
+      <c r="L19"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY19"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="242">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="243">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="244">
         <v>126</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="245">
         <v>127</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s" s="246">
         <v>128</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s" s="247">
         <v>129</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s" s="248">
         <v>130</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s" s="249">
         <v>131</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s" s="250">
         <v>132</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s" s="251">
         <v>133</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s" s="252">
         <v>134</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s" s="253">
         <v>135</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s" s="254">
         <v>136</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s" s="255">
         <v>137</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s" s="256">
         <v>138</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s" s="257">
         <v>139</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s" s="258">
         <v>140</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s" s="259">
         <v>141</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s" s="260">
         <v>142</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s" s="261">
         <v>143</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s" s="262">
         <v>144</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s" s="263">
         <v>145</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" t="s" s="264">
         <v>146</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" t="s" s="265">
         <v>147</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" t="s" s="266">
         <v>148</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" t="s" s="267">
         <v>149</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" t="s" s="268">
         <v>150</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" t="s" s="269">
         <v>151</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" t="s" s="270">
         <v>152</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" t="s" s="271">
         <v>153</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" t="s" s="272">
         <v>154</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" t="s" s="273">
         <v>155</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" t="s" s="274">
         <v>156</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" t="s" s="275">
         <v>157</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" t="s" s="276">
         <v>158</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" t="s" s="277">
         <v>159</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" t="s" s="278">
         <v>160</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" t="s" s="279">
         <v>161</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" t="s" s="280">
         <v>162</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" t="s" s="281">
         <v>163</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" t="s" s="282">
         <v>164</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" t="s" s="283">
         <v>165</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" t="s" s="284">
         <v>166</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" t="s" s="285">
         <v>167</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" t="s" s="286">
         <v>168</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" t="s" s="287">
         <v>169</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" t="s" s="288">
         <v>170</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" t="s" s="289">
         <v>171</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" t="s" s="290">
         <v>172</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" t="s" s="291">
         <v>173</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" t="s" s="292">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2">
+      <c r="A2" t="s" s="293">
         <v>12</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" t="n" s="311">
+        <v>1.0</v>
+      </c>
+      <c r="C2" t="s" s="326">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s" s="344">
         <v>174</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2" t="s" s="386">
+        <v>195</v>
+      </c>
+      <c r="O2" t="s" s="404">
+        <v>195</v>
+      </c>
+      <c r="P2" t="s" s="422">
         <v>220</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" t="s" s="440">
         <v>222</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" t="s" s="458">
         <v>227</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" t="s" s="476">
         <v>59</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" t="s" s="494">
         <v>174</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF2" s="2" t="s">
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2" t="s" s="536">
+        <v>195</v>
+      </c>
+      <c r="AE2" t="s" s="554">
+        <v>195</v>
+      </c>
+      <c r="AF2" t="s" s="572">
         <v>220</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AG2" t="s" s="590">
         <v>222</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AH2" t="s" s="608">
         <v>227</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AI2" t="s" s="626">
         <v>91</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AJ2" t="s" s="644">
         <v>174</v>
       </c>
-      <c r="AT2" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
+      <c r="AT2" t="s" s="686">
+        <v>195</v>
+      </c>
+      <c r="AU2" t="s" s="704">
+        <v>195</v>
+      </c>
+      <c r="AV2" t="s" s="722">
         <v>220</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AW2" t="s" s="740">
         <v>222</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AX2" t="s" s="758">
         <v>227</v>
       </c>
-      <c r="AY2" s="3">
-        <v>1</v>
+      <c r="AY2" t="n" s="776">
+        <v>1.0</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3">
+      <c r="A3" t="s" s="294">
         <v>13</v>
       </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" t="n" s="312">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="s" s="327">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s" s="345">
         <v>175</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3" t="s" s="387">
+        <v>195</v>
+      </c>
+      <c r="O3" t="s" s="405">
+        <v>195</v>
+      </c>
+      <c r="P3" t="s" s="423">
         <v>220</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" t="s" s="441">
         <v>223</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" t="s" s="459">
         <v>227</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" t="s" s="477">
         <v>61</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" t="s" s="495">
         <v>228</v>
       </c>
-      <c r="AD3" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF3" s="2" t="s">
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3" t="s" s="537">
+        <v>195</v>
+      </c>
+      <c r="AE3" t="s" s="555">
+        <v>195</v>
+      </c>
+      <c r="AF3" t="s" s="573">
         <v>220</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AG3" t="s" s="591">
         <v>223</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AH3" t="s" s="609">
         <v>227</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AI3" t="s" s="627">
         <v>93</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AJ3" t="s" s="645">
         <v>256</v>
       </c>
-      <c r="AT3" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AU3" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+      <c r="AR3"/>
+      <c r="AS3"/>
+      <c r="AT3" t="s" s="687">
+        <v>195</v>
+      </c>
+      <c r="AU3" t="s" s="705">
+        <v>195</v>
+      </c>
+      <c r="AV3" t="s" s="723">
         <v>220</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AW3" t="s" s="741">
         <v>223</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="AX3" t="s" s="759">
         <v>227</v>
       </c>
-      <c r="AY3" s="3">
-        <v>2</v>
+      <c r="AY3" t="n" s="777">
+        <v>2.0</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4">
+      <c r="A4" t="s" s="295">
         <v>13</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" t="n" s="313">
+        <v>1.0</v>
+      </c>
+      <c r="C4" t="s" s="328">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s" s="346">
         <v>176</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="P4" s="2" t="s">
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4" t="s" s="388">
+        <v>195</v>
+      </c>
+      <c r="O4" t="s" s="406">
+        <v>195</v>
+      </c>
+      <c r="P4" t="s" s="424">
         <v>220</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" t="s" s="442">
         <v>223</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" t="s" s="460">
         <v>227</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" t="s" s="478">
         <v>60</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" t="s" s="496">
         <v>229</v>
       </c>
-      <c r="AD4" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF4" s="2" t="s">
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4" t="s" s="538">
+        <v>195</v>
+      </c>
+      <c r="AE4" t="s" s="556">
+        <v>195</v>
+      </c>
+      <c r="AF4" t="s" s="574">
         <v>220</v>
       </c>
-      <c r="AG4" s="2" t="s">
+      <c r="AG4" t="s" s="592">
         <v>223</v>
       </c>
-      <c r="AH4" s="2" t="s">
+      <c r="AH4" t="s" s="610">
         <v>227</v>
       </c>
-      <c r="AI4" s="2" t="s">
+      <c r="AI4" t="s" s="628">
         <v>92</v>
       </c>
-      <c r="AJ4" s="2" t="s">
+      <c r="AJ4" t="s" s="646">
         <v>257</v>
       </c>
-      <c r="AT4" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AU4" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV4" s="2" t="s">
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4"/>
+      <c r="AQ4"/>
+      <c r="AR4"/>
+      <c r="AS4"/>
+      <c r="AT4" t="s" s="688">
+        <v>195</v>
+      </c>
+      <c r="AU4" t="s" s="706">
+        <v>195</v>
+      </c>
+      <c r="AV4" t="s" s="724">
         <v>220</v>
       </c>
-      <c r="AW4" s="2" t="s">
+      <c r="AW4" t="s" s="742">
         <v>223</v>
       </c>
-      <c r="AX4" s="2" t="s">
+      <c r="AX4" t="s" s="760">
         <v>227</v>
       </c>
-      <c r="AY4" s="3">
-        <v>2</v>
+      <c r="AY4" t="n" s="778">
+        <v>2.0</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5">
+      <c r="A5" t="s" s="296">
         <v>14</v>
       </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" t="n" s="314">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="s" s="329">
         <v>27</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s" s="347">
         <v>177</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="P5" s="2" t="s">
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5" t="s" s="389">
+        <v>195</v>
+      </c>
+      <c r="O5" t="s" s="407">
+        <v>195</v>
+      </c>
+      <c r="P5" t="s" s="425">
         <v>220</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" t="s" s="443">
         <v>199</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" t="s" s="461">
         <v>227</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S5" t="s" s="479">
         <v>63</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="T5" t="s" s="497">
         <v>230</v>
       </c>
-      <c r="AD5" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF5" s="2" t="s">
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5" t="s" s="539">
+        <v>195</v>
+      </c>
+      <c r="AE5" t="s" s="557">
+        <v>195</v>
+      </c>
+      <c r="AF5" t="s" s="575">
         <v>220</v>
       </c>
-      <c r="AG5" s="2" t="s">
+      <c r="AG5" t="s" s="593">
         <v>199</v>
       </c>
-      <c r="AH5" s="2" t="s">
+      <c r="AH5" t="s" s="611">
         <v>227</v>
       </c>
-      <c r="AI5" s="2" t="s">
+      <c r="AI5" t="s" s="629">
         <v>95</v>
       </c>
-      <c r="AJ5" s="2" t="s">
+      <c r="AJ5" t="s" s="647">
         <v>258</v>
       </c>
-      <c r="AT5" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AU5" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV5" s="2" t="s">
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5"/>
+      <c r="AQ5"/>
+      <c r="AR5"/>
+      <c r="AS5"/>
+      <c r="AT5" t="s" s="689">
+        <v>195</v>
+      </c>
+      <c r="AU5" t="s" s="707">
+        <v>195</v>
+      </c>
+      <c r="AV5" t="s" s="725">
         <v>220</v>
       </c>
-      <c r="AW5" s="2" t="s">
+      <c r="AW5" t="s" s="743">
         <v>199</v>
       </c>
-      <c r="AX5" s="2" t="s">
+      <c r="AX5" t="s" s="761">
         <v>227</v>
       </c>
-      <c r="AY5" s="3">
-        <v>3</v>
+      <c r="AY5" t="n" s="779">
+        <v>3.0</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6">
+      <c r="A6" t="s" s="297">
         <v>14</v>
       </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" t="n" s="315">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="s" s="330">
         <v>26</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s" s="348">
         <v>178</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="P6" s="2" t="s">
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6" t="s" s="390">
+        <v>195</v>
+      </c>
+      <c r="O6" t="s" s="408">
+        <v>195</v>
+      </c>
+      <c r="P6" t="s" s="426">
         <v>220</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" t="s" s="444">
         <v>199</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" t="s" s="462">
         <v>227</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="S6" t="s" s="480">
         <v>62</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="T6" t="s" s="498">
         <v>231</v>
       </c>
-      <c r="AD6" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE6" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF6" s="2" t="s">
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6" t="s" s="540">
+        <v>195</v>
+      </c>
+      <c r="AE6" t="s" s="558">
+        <v>195</v>
+      </c>
+      <c r="AF6" t="s" s="576">
         <v>220</v>
       </c>
-      <c r="AG6" s="2" t="s">
+      <c r="AG6" t="s" s="594">
         <v>199</v>
       </c>
-      <c r="AH6" s="2" t="s">
+      <c r="AH6" t="s" s="612">
         <v>227</v>
       </c>
-      <c r="AI6" s="2" t="s">
+      <c r="AI6" t="s" s="630">
         <v>94</v>
       </c>
-      <c r="AJ6" s="2" t="s">
+      <c r="AJ6" t="s" s="648">
         <v>259</v>
       </c>
-      <c r="AT6" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AU6" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV6" s="2" t="s">
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6"/>
+      <c r="AP6"/>
+      <c r="AQ6"/>
+      <c r="AR6"/>
+      <c r="AS6"/>
+      <c r="AT6" t="s" s="690">
+        <v>195</v>
+      </c>
+      <c r="AU6" t="s" s="708">
+        <v>195</v>
+      </c>
+      <c r="AV6" t="s" s="726">
         <v>220</v>
       </c>
-      <c r="AW6" s="2" t="s">
+      <c r="AW6" t="s" s="744">
         <v>199</v>
       </c>
-      <c r="AX6" s="2" t="s">
+      <c r="AX6" t="s" s="762">
         <v>227</v>
       </c>
-      <c r="AY6" s="3">
-        <v>3</v>
+      <c r="AY6" t="n" s="780">
+        <v>3.0</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7">
+      <c r="A7" t="s" s="298">
         <v>15</v>
       </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" t="n" s="316">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="s" s="331">
         <v>29</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s" s="349">
         <v>179</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="P7" s="2" t="s">
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7" t="s" s="391">
+        <v>195</v>
+      </c>
+      <c r="O7" t="s" s="409">
+        <v>195</v>
+      </c>
+      <c r="P7" t="s" s="427">
         <v>220</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" t="s" s="445">
         <v>204</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" t="s" s="463">
         <v>227</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="S7" t="s" s="481">
         <v>65</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="T7" t="s" s="499">
         <v>232</v>
       </c>
-      <c r="AD7" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE7" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF7" s="2" t="s">
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7" t="s" s="541">
+        <v>195</v>
+      </c>
+      <c r="AE7" t="s" s="559">
+        <v>195</v>
+      </c>
+      <c r="AF7" t="s" s="577">
         <v>220</v>
       </c>
-      <c r="AG7" s="2" t="s">
+      <c r="AG7" t="s" s="595">
         <v>204</v>
       </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AH7" t="s" s="613">
         <v>227</v>
       </c>
-      <c r="AI7" s="2" t="s">
+      <c r="AI7" t="s" s="631">
         <v>97</v>
       </c>
-      <c r="AJ7" s="2" t="s">
+      <c r="AJ7" t="s" s="649">
         <v>260</v>
       </c>
-      <c r="AT7" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AU7" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV7" s="2" t="s">
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7"/>
+      <c r="AQ7"/>
+      <c r="AR7"/>
+      <c r="AS7"/>
+      <c r="AT7" t="s" s="691">
+        <v>195</v>
+      </c>
+      <c r="AU7" t="s" s="709">
+        <v>195</v>
+      </c>
+      <c r="AV7" t="s" s="727">
         <v>220</v>
       </c>
-      <c r="AW7" s="2" t="s">
+      <c r="AW7" t="s" s="745">
         <v>204</v>
       </c>
-      <c r="AX7" s="2" t="s">
+      <c r="AX7" t="s" s="763">
         <v>227</v>
       </c>
-      <c r="AY7" s="3">
-        <v>4</v>
+      <c r="AY7" t="n" s="781">
+        <v>4.0</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8">
+      <c r="A8" t="s" s="299">
         <v>15</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" t="n" s="317">
+        <v>1.0</v>
+      </c>
+      <c r="C8" t="s" s="332">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s" s="350">
         <v>180</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="P8" s="2" t="s">
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8" t="s" s="392">
+        <v>195</v>
+      </c>
+      <c r="O8" t="s" s="410">
+        <v>195</v>
+      </c>
+      <c r="P8" t="s" s="428">
         <v>220</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="Q8" t="s" s="446">
         <v>204</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="R8" t="s" s="464">
         <v>227</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="S8" t="s" s="482">
         <v>64</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="T8" t="s" s="500">
         <v>233</v>
       </c>
-      <c r="AD8" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE8" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF8" s="2" t="s">
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8" t="s" s="542">
+        <v>195</v>
+      </c>
+      <c r="AE8" t="s" s="560">
+        <v>195</v>
+      </c>
+      <c r="AF8" t="s" s="578">
         <v>220</v>
       </c>
-      <c r="AG8" s="2" t="s">
+      <c r="AG8" t="s" s="596">
         <v>204</v>
       </c>
-      <c r="AH8" s="2" t="s">
+      <c r="AH8" t="s" s="614">
         <v>227</v>
       </c>
-      <c r="AI8" s="2" t="s">
+      <c r="AI8" t="s" s="632">
         <v>96</v>
       </c>
-      <c r="AJ8" s="2" t="s">
+      <c r="AJ8" t="s" s="650">
         <v>261</v>
       </c>
-      <c r="AT8" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AU8" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV8" s="2" t="s">
+      <c r="AK8"/>
+      <c r="AL8"/>
+      <c r="AM8"/>
+      <c r="AN8"/>
+      <c r="AO8"/>
+      <c r="AP8"/>
+      <c r="AQ8"/>
+      <c r="AR8"/>
+      <c r="AS8"/>
+      <c r="AT8" t="s" s="692">
+        <v>195</v>
+      </c>
+      <c r="AU8" t="s" s="710">
+        <v>195</v>
+      </c>
+      <c r="AV8" t="s" s="728">
         <v>220</v>
       </c>
-      <c r="AW8" s="2" t="s">
+      <c r="AW8" t="s" s="746">
         <v>204</v>
       </c>
-      <c r="AX8" s="2" t="s">
+      <c r="AX8" t="s" s="764">
         <v>227</v>
       </c>
-      <c r="AY8" s="3">
-        <v>4</v>
+      <c r="AY8" t="n" s="782">
+        <v>4.0</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="9">
+      <c r="A9" t="s" s="300">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9"/>
+      <c r="C9" t="s" s="333">
         <v>23</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9"/>
+      <c r="E9" t="s" s="359">
         <v>189</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s" s="362">
         <v>192</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="G9" t="s" s="365">
+        <v>195</v>
+      </c>
+      <c r="H9" t="s" s="368">
+        <v>195</v>
+      </c>
+      <c r="I9" t="s" s="371">
         <v>199</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" t="s" s="374">
         <v>202</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" t="s" s="377">
         <v>205</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" t="s" s="380">
         <v>208</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" t="s" s="383">
         <v>211</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" t="s" s="393">
         <v>214</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" t="s" s="411">
         <v>217</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="P9" t="s" s="429">
         <v>221</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="Q9" t="s" s="447">
         <v>197</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="R9" t="s" s="465">
         <v>227</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="S9" t="s" s="483">
         <v>59</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="T9"/>
+      <c r="U9" t="s" s="509">
         <v>242</v>
       </c>
-      <c r="V9" s="2" t="s">
+      <c r="V9" t="s" s="512">
         <v>245</v>
       </c>
-      <c r="W9" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y9" s="2" t="s">
+      <c r="W9" t="s" s="515">
+        <v>195</v>
+      </c>
+      <c r="X9" t="s" s="518">
+        <v>195</v>
+      </c>
+      <c r="Y9" t="s" s="521">
         <v>222</v>
       </c>
-      <c r="Z9" s="2" t="s">
+      <c r="Z9" t="s" s="524">
         <v>204</v>
       </c>
-      <c r="AA9" s="2" t="s">
+      <c r="AA9" t="s" s="527">
         <v>226</v>
       </c>
-      <c r="AB9" s="2" t="s">
+      <c r="AB9" t="s" s="530">
         <v>251</v>
       </c>
-      <c r="AC9" s="2" t="s">
+      <c r="AC9" t="s" s="533">
         <v>253</v>
       </c>
-      <c r="AD9" s="2" t="s">
+      <c r="AD9" t="s" s="543">
         <v>214</v>
       </c>
-      <c r="AE9" s="2" t="s">
+      <c r="AE9" t="s" s="561">
         <v>217</v>
       </c>
-      <c r="AF9" s="2" t="s">
+      <c r="AF9" t="s" s="579">
         <v>221</v>
       </c>
-      <c r="AG9" s="2" t="s">
+      <c r="AG9" t="s" s="597">
         <v>197</v>
       </c>
-      <c r="AH9" s="2" t="s">
+      <c r="AH9" t="s" s="615">
         <v>227</v>
       </c>
-      <c r="AI9" s="2" t="s">
+      <c r="AI9" t="s" s="633">
         <v>91</v>
       </c>
-      <c r="AK9" s="2" t="s">
+      <c r="AJ9"/>
+      <c r="AK9" t="s" s="659">
         <v>268</v>
       </c>
-      <c r="AL9" s="2" t="s">
+      <c r="AL9" t="s" s="662">
         <v>271</v>
       </c>
-      <c r="AM9" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AN9" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AO9" s="2" t="s">
+      <c r="AM9" t="s" s="665">
+        <v>195</v>
+      </c>
+      <c r="AN9" t="s" s="668">
+        <v>195</v>
+      </c>
+      <c r="AO9" t="s" s="671">
         <v>222</v>
       </c>
-      <c r="AP9" s="2" t="s">
+      <c r="AP9" t="s" s="674">
         <v>199</v>
       </c>
-      <c r="AQ9" s="2" t="s">
+      <c r="AQ9" t="s" s="677">
         <v>225</v>
       </c>
-      <c r="AR9" s="2" t="s">
+      <c r="AR9" t="s" s="680">
         <v>275</v>
       </c>
-      <c r="AS9" s="2" t="s">
+      <c r="AS9" t="s" s="683">
         <v>276</v>
       </c>
-      <c r="AT9" s="2" t="s">
+      <c r="AT9" t="s" s="693">
         <v>214</v>
       </c>
-      <c r="AU9" s="2" t="s">
+      <c r="AU9" t="s" s="711">
         <v>217</v>
       </c>
-      <c r="AV9" s="2" t="s">
+      <c r="AV9" t="s" s="729">
         <v>221</v>
       </c>
-      <c r="AW9" s="2" t="s">
+      <c r="AW9" t="s" s="747">
         <v>197</v>
       </c>
-      <c r="AX9" s="2" t="s">
+      <c r="AX9" t="s" s="765">
         <v>227</v>
       </c>
-      <c r="AY9" s="3">
-        <v>5</v>
+      <c r="AY9" t="n" s="783">
+        <v>5.0</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10">
+      <c r="A10" t="s" s="301">
         <v>17</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10"/>
+      <c r="C10" t="s" s="334">
         <v>23</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10"/>
+      <c r="E10" t="s" s="360">
         <v>190</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s" s="363">
         <v>193</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="G10" t="s" s="366">
+        <v>195</v>
+      </c>
+      <c r="H10" t="s" s="369">
         <v>197</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" t="s" s="372">
         <v>200</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" t="s" s="375">
         <v>203</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" t="s" s="378">
         <v>206</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" t="s" s="381">
         <v>209</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" t="s" s="384">
         <v>212</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" t="s" s="394">
         <v>215</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" t="s" s="412">
         <v>218</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="P10" t="s" s="430">
         <v>221</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="Q10" t="s" s="448">
         <v>202</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="R10" t="s" s="466">
         <v>227</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="S10" t="s" s="484">
         <v>59</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="T10"/>
+      <c r="U10" t="s" s="510">
         <v>243</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="V10" t="s" s="513">
         <v>246</v>
       </c>
-      <c r="W10" s="2" t="s">
+      <c r="W10" t="s" s="516">
         <v>222</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="X10" t="s" s="519">
         <v>197</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="Y10" t="s" s="522">
         <v>200</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="Z10" t="s" s="525">
         <v>203</v>
       </c>
-      <c r="AA10" s="2" t="s">
+      <c r="AA10" t="s" s="528">
         <v>206</v>
       </c>
-      <c r="AB10" s="2" t="s">
+      <c r="AB10" t="s" s="531">
         <v>209</v>
       </c>
-      <c r="AC10" s="2" t="s">
+      <c r="AC10" t="s" s="534">
         <v>254</v>
       </c>
-      <c r="AD10" s="2" t="s">
+      <c r="AD10" t="s" s="544">
         <v>215</v>
       </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AE10" t="s" s="562">
         <v>218</v>
       </c>
-      <c r="AF10" s="2" t="s">
+      <c r="AF10" t="s" s="580">
         <v>221</v>
       </c>
-      <c r="AG10" s="2" t="s">
+      <c r="AG10" t="s" s="598">
         <v>202</v>
       </c>
-      <c r="AH10" s="2" t="s">
+      <c r="AH10" t="s" s="616">
         <v>227</v>
       </c>
-      <c r="AI10" s="2" t="s">
+      <c r="AI10" t="s" s="634">
         <v>91</v>
       </c>
-      <c r="AK10" s="2" t="s">
+      <c r="AJ10"/>
+      <c r="AK10" t="s" s="660">
         <v>269</v>
       </c>
-      <c r="AL10" s="2" t="s">
+      <c r="AL10" t="s" s="663">
         <v>272</v>
       </c>
-      <c r="AM10" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AN10" s="2" t="s">
+      <c r="AM10" t="s" s="666">
+        <v>195</v>
+      </c>
+      <c r="AN10" t="s" s="669">
         <v>197</v>
       </c>
-      <c r="AO10" s="2" t="s">
+      <c r="AO10" t="s" s="672">
         <v>200</v>
       </c>
-      <c r="AP10" s="2" t="s">
+      <c r="AP10" t="s" s="675">
         <v>203</v>
       </c>
-      <c r="AQ10" s="2" t="s">
+      <c r="AQ10" t="s" s="678">
         <v>206</v>
       </c>
-      <c r="AR10" s="2" t="s">
+      <c r="AR10" t="s" s="681">
         <v>209</v>
       </c>
-      <c r="AS10" s="2" t="s">
+      <c r="AS10" t="s" s="684">
         <v>277</v>
       </c>
-      <c r="AT10" s="2" t="s">
+      <c r="AT10" t="s" s="694">
         <v>215</v>
       </c>
-      <c r="AU10" s="2" t="s">
+      <c r="AU10" t="s" s="712">
         <v>218</v>
       </c>
-      <c r="AV10" s="2" t="s">
+      <c r="AV10" t="s" s="730">
         <v>221</v>
       </c>
-      <c r="AW10" s="2" t="s">
+      <c r="AW10" t="s" s="748">
         <v>202</v>
       </c>
-      <c r="AX10" s="2" t="s">
+      <c r="AX10" t="s" s="766">
         <v>227</v>
       </c>
-      <c r="AY10" s="3">
-        <v>6</v>
+      <c r="AY10" t="n" s="784">
+        <v>6.0</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11">
+      <c r="A11" t="s" s="302">
         <v>18</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11"/>
+      <c r="C11" t="s" s="335">
         <v>23</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11"/>
+      <c r="E11" t="s" s="361">
         <v>191</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s" s="364">
         <v>194</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s" s="367">
         <v>196</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" t="s" s="370">
         <v>198</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" t="s" s="373">
         <v>201</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" t="s" s="376">
         <v>204</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" t="s" s="379">
         <v>207</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" t="s" s="382">
         <v>210</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" t="s" s="385">
         <v>213</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" t="s" s="395">
         <v>216</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" t="s" s="413">
         <v>219</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="P11" t="s" s="431">
         <v>221</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="Q11" t="s" s="449">
         <v>178</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="R11" t="s" s="467">
         <v>227</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="S11" t="s" s="485">
         <v>59</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="T11"/>
+      <c r="U11" t="s" s="511">
         <v>244</v>
       </c>
-      <c r="V11" s="2" t="s">
+      <c r="V11" t="s" s="514">
         <v>247</v>
       </c>
-      <c r="W11" s="2" t="s">
+      <c r="W11" t="s" s="517">
         <v>248</v>
       </c>
-      <c r="X11" s="2" t="s">
+      <c r="X11" t="s" s="520">
         <v>249</v>
       </c>
-      <c r="Y11" s="2" t="s">
+      <c r="Y11" t="s" s="523">
         <v>250</v>
       </c>
-      <c r="Z11" s="2" t="s">
+      <c r="Z11" t="s" s="526">
         <v>199</v>
       </c>
-      <c r="AA11" s="2" t="s">
+      <c r="AA11" t="s" s="529">
         <v>225</v>
       </c>
-      <c r="AB11" s="2" t="s">
+      <c r="AB11" t="s" s="532">
         <v>252</v>
       </c>
-      <c r="AC11" s="2" t="s">
+      <c r="AC11" t="s" s="535">
         <v>255</v>
       </c>
-      <c r="AD11" s="2" t="s">
+      <c r="AD11" t="s" s="545">
         <v>216</v>
       </c>
-      <c r="AE11" s="2" t="s">
+      <c r="AE11" t="s" s="563">
         <v>219</v>
       </c>
-      <c r="AF11" s="2" t="s">
+      <c r="AF11" t="s" s="581">
         <v>221</v>
       </c>
-      <c r="AG11" s="2" t="s">
+      <c r="AG11" t="s" s="599">
         <v>178</v>
       </c>
-      <c r="AH11" s="2" t="s">
+      <c r="AH11" t="s" s="617">
         <v>227</v>
       </c>
-      <c r="AI11" s="2" t="s">
+      <c r="AI11" t="s" s="635">
         <v>91</v>
       </c>
-      <c r="AK11" s="2" t="s">
+      <c r="AJ11"/>
+      <c r="AK11" t="s" s="661">
         <v>270</v>
       </c>
-      <c r="AL11" s="2" t="s">
+      <c r="AL11" t="s" s="664">
         <v>273</v>
       </c>
-      <c r="AM11" s="2" t="s">
+      <c r="AM11" t="s" s="667">
         <v>274</v>
       </c>
-      <c r="AN11" s="2" t="s">
+      <c r="AN11" t="s" s="670">
         <v>249</v>
       </c>
-      <c r="AO11" s="2" t="s">
+      <c r="AO11" t="s" s="673">
         <v>250</v>
       </c>
-      <c r="AP11" s="2" t="s">
+      <c r="AP11" t="s" s="676">
         <v>199</v>
       </c>
-      <c r="AQ11" s="2" t="s">
+      <c r="AQ11" t="s" s="679">
         <v>224</v>
       </c>
-      <c r="AR11" s="2" t="s">
+      <c r="AR11" t="s" s="682">
         <v>252</v>
       </c>
-      <c r="AS11" s="2" t="s">
+      <c r="AS11" t="s" s="685">
         <v>212</v>
       </c>
-      <c r="AT11" s="2" t="s">
+      <c r="AT11" t="s" s="695">
         <v>216</v>
       </c>
-      <c r="AU11" s="2" t="s">
+      <c r="AU11" t="s" s="713">
         <v>219</v>
       </c>
-      <c r="AV11" s="2" t="s">
+      <c r="AV11" t="s" s="731">
         <v>221</v>
       </c>
-      <c r="AW11" s="2" t="s">
+      <c r="AW11" t="s" s="749">
         <v>178</v>
       </c>
-      <c r="AX11" s="2" t="s">
+      <c r="AX11" t="s" s="767">
         <v>227</v>
       </c>
-      <c r="AY11" s="3">
-        <v>7</v>
+      <c r="AY11" t="n" s="785">
+        <v>7.0</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12">
+      <c r="A12" t="s" s="303">
         <v>19</v>
       </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" t="n" s="318">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="s" s="336">
         <v>34</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s" s="351">
         <v>181</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="P12" s="2" t="s">
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12" t="s" s="396">
+        <v>195</v>
+      </c>
+      <c r="O12" t="s" s="414">
+        <v>195</v>
+      </c>
+      <c r="P12" t="s" s="432">
         <v>220</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="Q12" t="s" s="450">
         <v>224</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="R12" t="s" s="468">
         <v>227</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="S12" t="s" s="486">
         <v>68</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="T12" t="s" s="501">
         <v>234</v>
       </c>
-      <c r="AD12" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE12" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF12" s="2" t="s">
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12" t="s" s="546">
+        <v>195</v>
+      </c>
+      <c r="AE12" t="s" s="564">
+        <v>195</v>
+      </c>
+      <c r="AF12" t="s" s="582">
         <v>220</v>
       </c>
-      <c r="AG12" s="2" t="s">
+      <c r="AG12" t="s" s="600">
         <v>224</v>
       </c>
-      <c r="AH12" s="2" t="s">
+      <c r="AH12" t="s" s="618">
         <v>227</v>
       </c>
-      <c r="AI12" s="2" t="s">
+      <c r="AI12" t="s" s="636">
         <v>99</v>
       </c>
-      <c r="AJ12" s="2" t="s">
+      <c r="AJ12" t="s" s="651">
         <v>262</v>
       </c>
-      <c r="AT12" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AU12" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV12" s="2" t="s">
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12"/>
+      <c r="AQ12"/>
+      <c r="AR12"/>
+      <c r="AS12"/>
+      <c r="AT12" t="s" s="696">
+        <v>195</v>
+      </c>
+      <c r="AU12" t="s" s="714">
+        <v>195</v>
+      </c>
+      <c r="AV12" t="s" s="732">
         <v>220</v>
       </c>
-      <c r="AW12" s="2" t="s">
+      <c r="AW12" t="s" s="750">
         <v>224</v>
       </c>
-      <c r="AX12" s="2" t="s">
+      <c r="AX12" t="s" s="768">
         <v>227</v>
       </c>
-      <c r="AY12" s="3">
-        <v>8</v>
+      <c r="AY12" t="n" s="786">
+        <v>8.0</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="13">
+      <c r="A13" t="s" s="304">
         <v>19</v>
       </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" t="n" s="319">
+        <v>1.0</v>
+      </c>
+      <c r="C13" t="s" s="337">
         <v>33</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s" s="352">
         <v>182</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="P13" s="2" t="s">
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13" t="s" s="397">
+        <v>195</v>
+      </c>
+      <c r="O13" t="s" s="415">
+        <v>195</v>
+      </c>
+      <c r="P13" t="s" s="433">
         <v>220</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="Q13" t="s" s="451">
         <v>224</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="R13" t="s" s="469">
         <v>227</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="S13" t="s" s="487">
         <v>67</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="T13" t="s" s="502">
         <v>235</v>
       </c>
-      <c r="AD13" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE13" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF13" s="2" t="s">
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13" t="s" s="547">
+        <v>195</v>
+      </c>
+      <c r="AE13" t="s" s="565">
+        <v>195</v>
+      </c>
+      <c r="AF13" t="s" s="583">
         <v>220</v>
       </c>
-      <c r="AG13" s="2" t="s">
+      <c r="AG13" t="s" s="601">
         <v>224</v>
       </c>
-      <c r="AH13" s="2" t="s">
+      <c r="AH13" t="s" s="619">
         <v>227</v>
       </c>
-      <c r="AI13" s="2" t="s">
+      <c r="AI13" t="s" s="637">
         <v>98</v>
       </c>
-      <c r="AJ13" s="2" t="s">
+      <c r="AJ13" t="s" s="652">
         <v>263</v>
       </c>
-      <c r="AT13" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AU13" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV13" s="2" t="s">
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13"/>
+      <c r="AQ13"/>
+      <c r="AR13"/>
+      <c r="AS13"/>
+      <c r="AT13" t="s" s="697">
+        <v>195</v>
+      </c>
+      <c r="AU13" t="s" s="715">
+        <v>195</v>
+      </c>
+      <c r="AV13" t="s" s="733">
         <v>220</v>
       </c>
-      <c r="AW13" s="2" t="s">
+      <c r="AW13" t="s" s="751">
         <v>224</v>
       </c>
-      <c r="AX13" s="2" t="s">
+      <c r="AX13" t="s" s="769">
         <v>227</v>
       </c>
-      <c r="AY13" s="3">
-        <v>8</v>
+      <c r="AY13" t="n" s="787">
+        <v>8.0</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14">
+      <c r="A14" t="s" s="305">
         <v>20</v>
       </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" t="n" s="320">
+        <v>0.0</v>
+      </c>
+      <c r="C14" t="s" s="338">
         <v>36</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s" s="353">
         <v>183</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="P14" s="2" t="s">
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14" t="s" s="398">
+        <v>195</v>
+      </c>
+      <c r="O14" t="s" s="416">
+        <v>195</v>
+      </c>
+      <c r="P14" t="s" s="434">
         <v>220</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="Q14" t="s" s="452">
         <v>225</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="R14" t="s" s="470">
         <v>227</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="S14" t="s" s="488">
         <v>70</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="T14" t="s" s="503">
         <v>236</v>
       </c>
-      <c r="AD14" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE14" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF14" s="2" t="s">
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14" t="s" s="548">
+        <v>195</v>
+      </c>
+      <c r="AE14" t="s" s="566">
+        <v>195</v>
+      </c>
+      <c r="AF14" t="s" s="584">
         <v>220</v>
       </c>
-      <c r="AG14" s="2" t="s">
+      <c r="AG14" t="s" s="602">
         <v>225</v>
       </c>
-      <c r="AH14" s="2" t="s">
+      <c r="AH14" t="s" s="620">
         <v>227</v>
       </c>
-      <c r="AI14" s="2" t="s">
+      <c r="AI14" t="s" s="638">
         <v>101</v>
       </c>
-      <c r="AJ14" s="2" t="s">
+      <c r="AJ14" t="s" s="653">
         <v>264</v>
       </c>
-      <c r="AT14" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AU14" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV14" s="2" t="s">
+      <c r="AK14"/>
+      <c r="AL14"/>
+      <c r="AM14"/>
+      <c r="AN14"/>
+      <c r="AO14"/>
+      <c r="AP14"/>
+      <c r="AQ14"/>
+      <c r="AR14"/>
+      <c r="AS14"/>
+      <c r="AT14" t="s" s="698">
+        <v>195</v>
+      </c>
+      <c r="AU14" t="s" s="716">
+        <v>195</v>
+      </c>
+      <c r="AV14" t="s" s="734">
         <v>220</v>
       </c>
-      <c r="AW14" s="2" t="s">
+      <c r="AW14" t="s" s="752">
         <v>225</v>
       </c>
-      <c r="AX14" s="2" t="s">
+      <c r="AX14" t="s" s="770">
         <v>227</v>
       </c>
-      <c r="AY14" s="3">
-        <v>9</v>
+      <c r="AY14" t="n" s="788">
+        <v>9.0</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="15">
+      <c r="A15" t="s" s="306">
         <v>20</v>
       </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" t="n" s="321">
+        <v>1.0</v>
+      </c>
+      <c r="C15" t="s" s="339">
         <v>35</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s" s="354">
         <v>184</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="P15" s="2" t="s">
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15" t="s" s="399">
+        <v>195</v>
+      </c>
+      <c r="O15" t="s" s="417">
+        <v>195</v>
+      </c>
+      <c r="P15" t="s" s="435">
         <v>220</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="Q15" t="s" s="453">
         <v>225</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="R15" t="s" s="471">
         <v>227</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="S15" t="s" s="489">
         <v>69</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="T15" t="s" s="504">
         <v>237</v>
       </c>
-      <c r="AD15" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE15" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF15" s="2" t="s">
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15" t="s" s="549">
+        <v>195</v>
+      </c>
+      <c r="AE15" t="s" s="567">
+        <v>195</v>
+      </c>
+      <c r="AF15" t="s" s="585">
         <v>220</v>
       </c>
-      <c r="AG15" s="2" t="s">
+      <c r="AG15" t="s" s="603">
         <v>225</v>
       </c>
-      <c r="AH15" s="2" t="s">
+      <c r="AH15" t="s" s="621">
         <v>227</v>
       </c>
-      <c r="AI15" s="2" t="s">
+      <c r="AI15" t="s" s="639">
         <v>100</v>
       </c>
-      <c r="AJ15" s="2" t="s">
+      <c r="AJ15" t="s" s="654">
         <v>265</v>
       </c>
-      <c r="AT15" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AU15" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV15" s="2" t="s">
+      <c r="AK15"/>
+      <c r="AL15"/>
+      <c r="AM15"/>
+      <c r="AN15"/>
+      <c r="AO15"/>
+      <c r="AP15"/>
+      <c r="AQ15"/>
+      <c r="AR15"/>
+      <c r="AS15"/>
+      <c r="AT15" t="s" s="699">
+        <v>195</v>
+      </c>
+      <c r="AU15" t="s" s="717">
+        <v>195</v>
+      </c>
+      <c r="AV15" t="s" s="735">
         <v>220</v>
       </c>
-      <c r="AW15" s="2" t="s">
+      <c r="AW15" t="s" s="753">
         <v>225</v>
       </c>
-      <c r="AX15" s="2" t="s">
+      <c r="AX15" t="s" s="771">
         <v>227</v>
       </c>
-      <c r="AY15" s="3">
-        <v>9</v>
+      <c r="AY15" t="n" s="789">
+        <v>9.0</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="16">
+      <c r="A16" t="s" s="307">
         <v>21</v>
       </c>
-      <c r="B16" s="3">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" t="n" s="322">
+        <v>0.0</v>
+      </c>
+      <c r="C16" t="s" s="340">
         <v>38</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s" s="355">
         <v>185</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="P16" s="2" t="s">
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16" t="s" s="400">
+        <v>195</v>
+      </c>
+      <c r="O16" t="s" s="418">
+        <v>195</v>
+      </c>
+      <c r="P16" t="s" s="436">
         <v>220</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="Q16" t="s" s="454">
         <v>200</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="R16" t="s" s="472">
         <v>227</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="S16" t="s" s="490">
         <v>72</v>
       </c>
-      <c r="T16" s="2" t="s">
+      <c r="T16" t="s" s="505">
         <v>238</v>
       </c>
-      <c r="AD16" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE16" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF16" s="2" t="s">
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16" t="s" s="550">
+        <v>195</v>
+      </c>
+      <c r="AE16" t="s" s="568">
+        <v>195</v>
+      </c>
+      <c r="AF16" t="s" s="586">
         <v>220</v>
       </c>
-      <c r="AG16" s="2" t="s">
+      <c r="AG16" t="s" s="604">
         <v>200</v>
       </c>
-      <c r="AH16" s="2" t="s">
+      <c r="AH16" t="s" s="622">
         <v>227</v>
       </c>
-      <c r="AI16" s="2" t="s">
+      <c r="AI16" t="s" s="640">
         <v>103</v>
       </c>
-      <c r="AJ16" s="2" t="s">
+      <c r="AJ16" t="s" s="655">
         <v>258</v>
       </c>
-      <c r="AT16" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AU16" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV16" s="2" t="s">
+      <c r="AK16"/>
+      <c r="AL16"/>
+      <c r="AM16"/>
+      <c r="AN16"/>
+      <c r="AO16"/>
+      <c r="AP16"/>
+      <c r="AQ16"/>
+      <c r="AR16"/>
+      <c r="AS16"/>
+      <c r="AT16" t="s" s="700">
+        <v>195</v>
+      </c>
+      <c r="AU16" t="s" s="718">
+        <v>195</v>
+      </c>
+      <c r="AV16" t="s" s="736">
         <v>220</v>
       </c>
-      <c r="AW16" s="2" t="s">
+      <c r="AW16" t="s" s="754">
         <v>200</v>
       </c>
-      <c r="AX16" s="2" t="s">
+      <c r="AX16" t="s" s="772">
         <v>227</v>
       </c>
-      <c r="AY16" s="3">
-        <v>10</v>
+      <c r="AY16" t="n" s="790">
+        <v>10.0</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="17">
+      <c r="A17" t="s" s="308">
         <v>21</v>
       </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" t="n" s="323">
+        <v>1.0</v>
+      </c>
+      <c r="C17" t="s" s="341">
         <v>37</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s" s="356">
         <v>186</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="P17" s="2" t="s">
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17" t="s" s="401">
+        <v>195</v>
+      </c>
+      <c r="O17" t="s" s="419">
+        <v>195</v>
+      </c>
+      <c r="P17" t="s" s="437">
         <v>220</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="Q17" t="s" s="455">
         <v>200</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="R17" t="s" s="473">
         <v>227</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="S17" t="s" s="491">
         <v>71</v>
       </c>
-      <c r="T17" s="2" t="s">
+      <c r="T17" t="s" s="506">
         <v>239</v>
       </c>
-      <c r="AD17" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE17" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF17" s="2" t="s">
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17" t="s" s="551">
+        <v>195</v>
+      </c>
+      <c r="AE17" t="s" s="569">
+        <v>195</v>
+      </c>
+      <c r="AF17" t="s" s="587">
         <v>220</v>
       </c>
-      <c r="AG17" s="2" t="s">
+      <c r="AG17" t="s" s="605">
         <v>200</v>
       </c>
-      <c r="AH17" s="2" t="s">
+      <c r="AH17" t="s" s="623">
         <v>227</v>
       </c>
-      <c r="AI17" s="2" t="s">
+      <c r="AI17" t="s" s="641">
         <v>102</v>
       </c>
-      <c r="AJ17" s="2" t="s">
+      <c r="AJ17" t="s" s="656">
         <v>259</v>
       </c>
-      <c r="AT17" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AU17" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV17" s="2" t="s">
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17"/>
+      <c r="AQ17"/>
+      <c r="AR17"/>
+      <c r="AS17"/>
+      <c r="AT17" t="s" s="701">
+        <v>195</v>
+      </c>
+      <c r="AU17" t="s" s="719">
+        <v>195</v>
+      </c>
+      <c r="AV17" t="s" s="737">
         <v>220</v>
       </c>
-      <c r="AW17" s="2" t="s">
+      <c r="AW17" t="s" s="755">
         <v>200</v>
       </c>
-      <c r="AX17" s="2" t="s">
+      <c r="AX17" t="s" s="773">
         <v>227</v>
       </c>
-      <c r="AY17" s="3">
-        <v>10</v>
+      <c r="AY17" t="n" s="791">
+        <v>10.0</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="18">
+      <c r="A18" t="s" s="309">
         <v>22</v>
       </c>
-      <c r="B18" s="3">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" t="n" s="324">
+        <v>0.0</v>
+      </c>
+      <c r="C18" t="s" s="342">
         <v>40</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s" s="357">
         <v>187</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="P18" s="2" t="s">
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18" t="s" s="402">
+        <v>195</v>
+      </c>
+      <c r="O18" t="s" s="420">
+        <v>195</v>
+      </c>
+      <c r="P18" t="s" s="438">
         <v>220</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="Q18" t="s" s="456">
         <v>226</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="R18" t="s" s="474">
         <v>227</v>
       </c>
-      <c r="S18" s="2" t="s">
+      <c r="S18" t="s" s="492">
         <v>74</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="T18" t="s" s="507">
         <v>240</v>
       </c>
-      <c r="AD18" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE18" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF18" s="2" t="s">
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18" t="s" s="552">
+        <v>195</v>
+      </c>
+      <c r="AE18" t="s" s="570">
+        <v>195</v>
+      </c>
+      <c r="AF18" t="s" s="588">
         <v>220</v>
       </c>
-      <c r="AG18" s="2" t="s">
+      <c r="AG18" t="s" s="606">
         <v>226</v>
       </c>
-      <c r="AH18" s="2" t="s">
+      <c r="AH18" t="s" s="624">
         <v>227</v>
       </c>
-      <c r="AI18" s="2" t="s">
+      <c r="AI18" t="s" s="642">
         <v>105</v>
       </c>
-      <c r="AJ18" s="2" t="s">
+      <c r="AJ18" t="s" s="657">
         <v>266</v>
       </c>
-      <c r="AT18" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AU18" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV18" s="2" t="s">
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18"/>
+      <c r="AN18"/>
+      <c r="AO18"/>
+      <c r="AP18"/>
+      <c r="AQ18"/>
+      <c r="AR18"/>
+      <c r="AS18"/>
+      <c r="AT18" t="s" s="702">
+        <v>195</v>
+      </c>
+      <c r="AU18" t="s" s="720">
+        <v>195</v>
+      </c>
+      <c r="AV18" t="s" s="738">
         <v>220</v>
       </c>
-      <c r="AW18" s="2" t="s">
+      <c r="AW18" t="s" s="756">
         <v>226</v>
       </c>
-      <c r="AX18" s="2" t="s">
+      <c r="AX18" t="s" s="774">
         <v>227</v>
       </c>
-      <c r="AY18" s="3">
-        <v>11</v>
+      <c r="AY18" t="n" s="792">
+        <v>11.0</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="19">
+      <c r="A19" t="s" s="310">
         <v>22</v>
       </c>
-      <c r="B19" s="3">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" t="n" s="325">
+        <v>1.0</v>
+      </c>
+      <c r="C19" t="s" s="343">
         <v>39</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s" s="358">
         <v>188</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="P19" s="2" t="s">
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19" t="s" s="403">
+        <v>195</v>
+      </c>
+      <c r="O19" t="s" s="421">
+        <v>195</v>
+      </c>
+      <c r="P19" t="s" s="439">
         <v>220</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="Q19" t="s" s="457">
         <v>226</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="R19" t="s" s="475">
         <v>227</v>
       </c>
-      <c r="S19" s="2" t="s">
+      <c r="S19" t="s" s="493">
         <v>73</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="T19" t="s" s="508">
         <v>241</v>
       </c>
-      <c r="AD19" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE19" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF19" s="2" t="s">
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19" t="s" s="553">
+        <v>195</v>
+      </c>
+      <c r="AE19" t="s" s="571">
+        <v>195</v>
+      </c>
+      <c r="AF19" t="s" s="589">
         <v>220</v>
       </c>
-      <c r="AG19" s="2" t="s">
+      <c r="AG19" t="s" s="607">
         <v>226</v>
       </c>
-      <c r="AH19" s="2" t="s">
+      <c r="AH19" t="s" s="625">
         <v>227</v>
       </c>
-      <c r="AI19" s="2" t="s">
+      <c r="AI19" t="s" s="643">
         <v>104</v>
       </c>
-      <c r="AJ19" s="2" t="s">
+      <c r="AJ19" t="s" s="658">
         <v>267</v>
       </c>
-      <c r="AT19" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AU19" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV19" s="2" t="s">
+      <c r="AK19"/>
+      <c r="AL19"/>
+      <c r="AM19"/>
+      <c r="AN19"/>
+      <c r="AO19"/>
+      <c r="AP19"/>
+      <c r="AQ19"/>
+      <c r="AR19"/>
+      <c r="AS19"/>
+      <c r="AT19" t="s" s="703">
+        <v>195</v>
+      </c>
+      <c r="AU19" t="s" s="721">
+        <v>195</v>
+      </c>
+      <c r="AV19" t="s" s="739">
         <v>220</v>
       </c>
-      <c r="AW19" s="2" t="s">
+      <c r="AW19" t="s" s="757">
         <v>226</v>
       </c>
-      <c r="AX19" s="2" t="s">
+      <c r="AX19" t="s" s="775">
         <v>227</v>
       </c>
-      <c r="AY19" s="3">
-        <v>11</v>
+      <c r="AY19" t="n" s="793">
+        <v>11.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>